--- a/questions/Assignment8-ServerCommandTableForA8.xlsx
+++ b/questions/Assignment8-ServerCommandTableForA8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viswesh\SimplicityStudio\v5_workspace\ecen5823-assignment8-VisweshBaskaran\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7360286-7200-4D37-87BB-66D066117DB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122AE0B8-6858-4DD9-8D50-67A0B4260735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -926,6 +926,9 @@
   <si>
     <t>When there are no indicaitons inflight,  the button indication is sent
 (when button is pressed/released). If there is already one indication inflight, then this indication is queued into  a circular buffer using a user defined API</t>
+  </si>
+  <si>
+    <t>TEMPERATURE STATE MACHINE for A8</t>
   </si>
 </sst>
 </file>
@@ -1389,6 +1392,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2442882</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>693046</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>150828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28E5ED79-EABB-7DCB-7FCF-D99F4BEFAA8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11530853" y="26333823"/>
+          <a:ext cx="7763958" cy="4801270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2470,10 +2517,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3344,6 +3391,11 @@
       <c r="E78" s="32"/>
       <c r="F78" s="32"/>
     </row>
+    <row r="85" spans="6:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F85" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:F1"/>
